--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_02_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_02_beg.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A mysterious operator from Rhodes Island, in search of "her," crosses swords with the bounty hunters. Grani decides to leave the attic, but unexpectedly runs into some bounty hunters who are also in hiding.
+    <t xml:space="preserve">A mysterious operator from Rhodes Island, in search of 'her,' crosses swords with the bounty hunters. Grani decides to leave the attic, but unexpectedly runs into some bounty hunters who are also in hiding.
 </t>
   </si>
   <si>
